--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/CALIFORNIA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/CALIFORNIA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2289"/>
+  <dimension ref="A1:D2283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -568,13 +568,13 @@
         <v>1681</v>
       </c>
       <c r="D15">
-        <v>0.009180625112641519</v>
+        <v>0.009180625112641521</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C39">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C40">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C43">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C45">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C55">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C61">
@@ -1499,7 +1499,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C86">
@@ -1512,7 +1512,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C87">
@@ -1590,7 +1590,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C93">
@@ -1733,7 +1733,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C104">
@@ -1746,7 +1746,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C105">
@@ -2362,7 +2362,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C152">
@@ -2505,7 +2505,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C163">
@@ -2531,7 +2531,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C165">
@@ -2830,7 +2830,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C188">
@@ -2843,7 +2843,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C189">
@@ -2856,7 +2856,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C190">
@@ -2947,7 +2947,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C197">
@@ -3212,7 +3212,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C217">
@@ -3425,7 +3425,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C233">
@@ -3451,7 +3451,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3508,7 +3508,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C239">
@@ -3708,7 +3708,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C254">
@@ -3890,7 +3890,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C268">
@@ -3942,7 +3942,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C272">
@@ -4033,7 +4033,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C279">
@@ -4046,7 +4046,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C280">
@@ -4059,7 +4059,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C281">
@@ -4072,7 +4072,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C282">
@@ -4202,12 +4202,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C292">
@@ -4246,7 +4246,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C295">
@@ -4259,7 +4259,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C296">
@@ -4272,7 +4272,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C297">
@@ -4363,7 +4363,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C304">
@@ -4467,7 +4467,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C312">
@@ -4545,7 +4545,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C318">
@@ -4636,7 +4636,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C325">
@@ -4727,7 +4727,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C332">
@@ -4740,7 +4740,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C333">
@@ -4961,7 +4961,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C350">
@@ -5143,7 +5143,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C364">
@@ -5156,7 +5156,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C365">
@@ -5169,7 +5169,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C366">
@@ -5195,7 +5195,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C368">
@@ -5221,7 +5221,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C370">
@@ -5351,7 +5351,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C380">
@@ -5364,7 +5364,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C381">
@@ -5546,7 +5546,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C395">
@@ -5624,7 +5624,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C401">
@@ -5637,7 +5637,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C402">
@@ -5650,7 +5650,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C403">
@@ -5663,7 +5663,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C404">
@@ -5850,7 +5850,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C418">
@@ -5863,7 +5863,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C419">
@@ -5967,7 +5967,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C427">
@@ -6019,7 +6019,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C431">
@@ -6123,7 +6123,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C439">
@@ -6175,7 +6175,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C443">
@@ -6201,7 +6201,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C445">
@@ -6227,7 +6227,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C447">
@@ -6253,7 +6253,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C449">
@@ -6279,7 +6279,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C451">
@@ -6344,7 +6344,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C456">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C462">
@@ -6466,7 +6466,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C465">
@@ -6479,7 +6479,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C466">
@@ -6531,7 +6531,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C470">
@@ -6544,7 +6544,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C471">
@@ -6570,7 +6570,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C473">
@@ -6583,7 +6583,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C474">
@@ -6622,7 +6622,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C477">
@@ -6635,7 +6635,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C478">
@@ -6648,7 +6648,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C479">
@@ -6661,7 +6661,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C480">
@@ -6726,7 +6726,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C485">
@@ -6739,7 +6739,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C486">
@@ -6791,7 +6791,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C490">
@@ -6804,7 +6804,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C491">
@@ -6882,7 +6882,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C497">
@@ -6895,7 +6895,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C498">
@@ -6921,7 +6921,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C500">
@@ -6934,7 +6934,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C501">
@@ -6960,7 +6960,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C503">
@@ -6999,7 +6999,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C506">
@@ -7168,7 +7168,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C519">
@@ -7194,7 +7194,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C521">
@@ -7220,7 +7220,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C523">
@@ -7246,7 +7246,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C525">
@@ -7298,7 +7298,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C529">
@@ -7311,7 +7311,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C530">
@@ -7472,7 +7472,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C542">
@@ -7563,7 +7563,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C549">
@@ -7576,7 +7576,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C550">
@@ -7654,7 +7654,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C556">
@@ -7732,7 +7732,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C562">
@@ -7784,7 +7784,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C566">
@@ -7823,7 +7823,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C569">
@@ -7914,7 +7914,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C576">
@@ -7927,7 +7927,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C577">
@@ -7940,7 +7940,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C578">
@@ -7953,7 +7953,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C579">
@@ -7966,7 +7966,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C580">
@@ -7992,7 +7992,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C582">
@@ -8005,7 +8005,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C583">
@@ -8018,7 +8018,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C584">
@@ -8057,7 +8057,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C587">
@@ -8135,7 +8135,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C593">
@@ -8148,7 +8148,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C594">
@@ -8200,7 +8200,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C598">
@@ -8226,7 +8226,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C600">
@@ -8239,7 +8239,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C601">
@@ -8278,7 +8278,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C604">
@@ -8382,20 +8382,20 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C612">
         <v>178</v>
       </c>
       <c r="D612">
-        <v>0.0009721304402440157</v>
+        <v>0.0009721304402440156</v>
       </c>
     </row>
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C613">
@@ -8408,7 +8408,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C614">
@@ -8460,7 +8460,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C618">
@@ -8473,7 +8473,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C619">
@@ -8543,7 +8543,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C624">
@@ -8556,7 +8556,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C625">
@@ -8621,7 +8621,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C630">
@@ -8660,7 +8660,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C633">
@@ -8686,7 +8686,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C635">
@@ -8764,7 +8764,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C641">
@@ -8855,7 +8855,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C648">
@@ -8868,7 +8868,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C649">
@@ -8985,7 +8985,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C658">
@@ -9076,7 +9076,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C665">
@@ -9089,7 +9089,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C666">
@@ -9102,7 +9102,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C667">
@@ -9154,7 +9154,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C671">
@@ -9232,7 +9232,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C677">
@@ -9245,7 +9245,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C678">
@@ -9349,7 +9349,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C686">
@@ -9369,7 +9369,7 @@
         <v>167</v>
       </c>
       <c r="D687">
-        <v>0.0009120549635997225</v>
+        <v>0.0009120549635997224</v>
       </c>
     </row>
     <row r="688">
@@ -9414,7 +9414,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C691">
@@ -9427,7 +9427,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C692">
@@ -9453,7 +9453,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C694">
@@ -9466,7 +9466,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C695">
@@ -9505,7 +9505,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C698">
@@ -9525,13 +9525,13 @@
         <v>168</v>
       </c>
       <c r="D699">
-        <v>0.0009175163705673855</v>
+        <v>0.0009175163705673856</v>
       </c>
     </row>
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C700">
@@ -9544,7 +9544,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C701">
@@ -9557,7 +9557,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C702">
@@ -9570,7 +9570,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C703">
@@ -9609,7 +9609,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C706">
@@ -9622,7 +9622,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C707">
@@ -9661,7 +9661,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C710">
@@ -9713,7 +9713,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C714">
@@ -9726,7 +9726,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C715">
@@ -9765,7 +9765,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C718">
@@ -9778,7 +9778,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C719">
@@ -9934,7 +9934,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C731">
@@ -9947,7 +9947,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C732">
@@ -9960,7 +9960,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C733">
@@ -9973,7 +9973,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C734">
@@ -10038,7 +10038,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C739">
@@ -10051,7 +10051,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C740">
@@ -10090,7 +10090,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C743">
@@ -10103,7 +10103,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C744">
@@ -10116,7 +10116,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C745">
@@ -10459,7 +10459,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C771">
@@ -10485,7 +10485,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C773">
@@ -10895,7 +10895,7 @@
         <v>1827</v>
       </c>
       <c r="D804">
-        <v>0.009977990529920319</v>
+        <v>0.00997799052992032</v>
       </c>
     </row>
     <row r="805">
@@ -11356,7 +11356,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C840">
@@ -11699,7 +11699,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C866">
@@ -11803,7 +11803,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C874">
@@ -11855,7 +11855,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C878">
@@ -11933,7 +11933,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C884">
@@ -11946,7 +11946,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C885">
@@ -12050,7 +12050,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C893">
@@ -12107,7 +12107,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C897">
@@ -12120,7 +12120,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C898">
@@ -12172,7 +12172,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C902">
@@ -12263,7 +12263,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C909">
@@ -12554,7 +12554,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C931">
@@ -12567,7 +12567,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C932">
@@ -12619,7 +12619,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C936">
@@ -12676,7 +12676,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C940">
@@ -12780,7 +12780,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C948">
@@ -12832,7 +12832,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C952">
@@ -12858,7 +12858,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C954">
@@ -12871,7 +12871,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C955">
@@ -12884,7 +12884,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C956">
@@ -12923,7 +12923,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C959">
@@ -12962,7 +12962,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C962">
@@ -13001,7 +13001,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C965">
@@ -13014,7 +13014,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C966">
@@ -13027,7 +13027,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C967">
@@ -13040,7 +13040,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C968">
@@ -13053,7 +13053,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C969">
@@ -13066,7 +13066,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C970">
@@ -13092,7 +13092,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C972">
@@ -13105,7 +13105,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C973">
@@ -13118,7 +13118,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C974">
@@ -13131,7 +13131,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C975">
@@ -13144,7 +13144,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C976">
@@ -13157,7 +13157,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C977">
@@ -13183,7 +13183,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C979">
@@ -13196,7 +13196,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C980">
@@ -13365,7 +13365,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C993">
@@ -13391,7 +13391,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C995">
@@ -13404,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C996">
@@ -13430,7 +13430,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C998">
@@ -13456,7 +13456,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1000">
@@ -13469,7 +13469,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C1001">
@@ -13521,7 +13521,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1005">
@@ -13547,7 +13547,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1007">
@@ -13560,7 +13560,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1008">
@@ -13573,7 +13573,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1009">
@@ -13599,7 +13599,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C1011">
@@ -13612,7 +13612,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C1012">
@@ -13638,7 +13638,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1014">
@@ -13703,7 +13703,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C1019">
@@ -13963,7 +13963,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C1039">
@@ -14002,7 +14002,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C1042">
@@ -14093,7 +14093,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C1049">
@@ -14301,7 +14301,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C1065">
@@ -14353,7 +14353,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C1069">
@@ -14444,7 +14444,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C1076">
@@ -14750,7 +14750,7 @@
         <v>168</v>
       </c>
       <c r="D1099">
-        <v>0.0009175163705673855</v>
+        <v>0.0009175163705673856</v>
       </c>
     </row>
     <row r="1100">
@@ -14782,7 +14782,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C1102">
@@ -14795,7 +14795,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1103">
@@ -14938,7 +14938,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C1114">
@@ -15107,7 +15107,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1127">
@@ -15120,7 +15120,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C1128">
@@ -15133,7 +15133,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1129">
@@ -15640,7 +15640,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1168">
@@ -15757,7 +15757,7 @@
     <row r="1177">
       <c r="B1177" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C1177">
@@ -15965,7 +15965,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1193">
@@ -15978,7 +15978,7 @@
     <row r="1194">
       <c r="B1194" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C1194">
@@ -16004,7 +16004,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1196">
@@ -16342,7 +16342,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1222">
@@ -16446,7 +16446,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1230">
@@ -16771,7 +16771,7 @@
     <row r="1255">
       <c r="B1255" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1255">
@@ -16784,7 +16784,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1256">
@@ -16797,7 +16797,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1257">
@@ -16830,7 +16830,7 @@
         <v>167</v>
       </c>
       <c r="D1259">
-        <v>0.0009120549635997225</v>
+        <v>0.0009120549635997224</v>
       </c>
     </row>
     <row r="1260">
@@ -17005,7 +17005,7 @@
     <row r="1273">
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1273">
@@ -17252,7 +17252,7 @@
     <row r="1292">
       <c r="B1292" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1292">
@@ -17317,7 +17317,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1297">
@@ -17395,7 +17395,7 @@
     <row r="1303">
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1303">
@@ -17408,7 +17408,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1304">
@@ -17434,7 +17434,7 @@
     <row r="1306">
       <c r="B1306" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1306">
@@ -17616,7 +17616,7 @@
     <row r="1320">
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C1320">
@@ -17720,7 +17720,7 @@
     <row r="1328">
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1328">
@@ -17746,7 +17746,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Santa María la Asunción</t>
+          <t>Santa María La Asunción</t>
         </is>
       </c>
       <c r="C1330">
@@ -18266,7 +18266,7 @@
     <row r="1370">
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1370">
@@ -18825,7 +18825,7 @@
     <row r="1413">
       <c r="B1413" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1413">
@@ -19176,7 +19176,7 @@
     <row r="1440">
       <c r="B1440" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C1440">
@@ -19202,7 +19202,7 @@
     <row r="1442">
       <c r="B1442" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1442">
@@ -19215,7 +19215,7 @@
     <row r="1443">
       <c r="B1443" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1443">
@@ -19241,7 +19241,7 @@
     <row r="1445">
       <c r="B1445" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1445">
@@ -19254,7 +19254,7 @@
     <row r="1446">
       <c r="B1446" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1446">
@@ -19267,7 +19267,7 @@
     <row r="1447">
       <c r="B1447" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1447">
@@ -19280,7 +19280,7 @@
     <row r="1448">
       <c r="B1448" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1448">
@@ -19306,7 +19306,7 @@
     <row r="1450">
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1450">
@@ -19319,7 +19319,7 @@
     <row r="1451">
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1451">
@@ -19332,7 +19332,7 @@
     <row r="1452">
       <c r="B1452" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1452">
@@ -19358,7 +19358,7 @@
     <row r="1454">
       <c r="B1454" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1454">
@@ -19371,7 +19371,7 @@
     <row r="1455">
       <c r="B1455" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1455">
@@ -19423,7 +19423,7 @@
     <row r="1459">
       <c r="B1459" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1459">
@@ -19436,7 +19436,7 @@
     <row r="1460">
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1460">
@@ -19449,7 +19449,7 @@
     <row r="1461">
       <c r="B1461" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1461">
@@ -19462,7 +19462,7 @@
     <row r="1462">
       <c r="B1462" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1462">
@@ -19475,7 +19475,7 @@
     <row r="1463">
       <c r="B1463" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1463">
@@ -19514,7 +19514,7 @@
     <row r="1466">
       <c r="B1466" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1466">
@@ -19527,7 +19527,7 @@
     <row r="1467">
       <c r="B1467" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1467">
@@ -19540,7 +19540,7 @@
     <row r="1468">
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1468">
@@ -19579,7 +19579,7 @@
     <row r="1471">
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C1471">
@@ -19592,7 +19592,7 @@
     <row r="1472">
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1472">
@@ -19631,7 +19631,7 @@
     <row r="1475">
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1475">
@@ -19747,7 +19747,7 @@
         <v>178</v>
       </c>
       <c r="D1483">
-        <v>0.0009721304402440157</v>
+        <v>0.0009721304402440156</v>
       </c>
     </row>
     <row r="1484">
@@ -19974,7 +19974,7 @@
     <row r="1501">
       <c r="B1501" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1501">
@@ -20039,7 +20039,7 @@
     <row r="1506">
       <c r="B1506" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1506">
@@ -20169,7 +20169,7 @@
     <row r="1516">
       <c r="B1516" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1516">
@@ -20312,7 +20312,7 @@
     <row r="1527">
       <c r="B1527" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1527">
@@ -20364,7 +20364,7 @@
     <row r="1531">
       <c r="B1531" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1531">
@@ -20377,7 +20377,7 @@
     <row r="1532">
       <c r="B1532" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1532">
@@ -20585,7 +20585,7 @@
     <row r="1548">
       <c r="B1548" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1548">
@@ -20598,7 +20598,7 @@
     <row r="1549">
       <c r="B1549" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1549">
@@ -20663,7 +20663,7 @@
     <row r="1554">
       <c r="B1554" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1554">
@@ -20689,7 +20689,7 @@
     <row r="1556">
       <c r="B1556" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1556">
@@ -20728,7 +20728,7 @@
     <row r="1559">
       <c r="B1559" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1559">
@@ -20858,7 +20858,7 @@
     <row r="1569">
       <c r="B1569" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1569">
@@ -20871,7 +20871,7 @@
     <row r="1570">
       <c r="B1570" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1570">
@@ -21040,7 +21040,7 @@
     <row r="1583">
       <c r="B1583" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1583">
@@ -21170,7 +21170,7 @@
     <row r="1593">
       <c r="B1593" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1593">
@@ -21391,7 +21391,7 @@
     <row r="1610">
       <c r="B1610" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1610">
@@ -21443,7 +21443,7 @@
     <row r="1614">
       <c r="B1614" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1614">
@@ -21456,7 +21456,7 @@
     <row r="1615">
       <c r="B1615" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1615">
@@ -21573,7 +21573,7 @@
     <row r="1624">
       <c r="B1624" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1624">
@@ -21677,7 +21677,7 @@
     <row r="1632">
       <c r="B1632" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1632">
@@ -21690,7 +21690,7 @@
     <row r="1633">
       <c r="B1633" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1633">
@@ -21703,7 +21703,7 @@
     <row r="1634">
       <c r="B1634" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1634">
@@ -21781,7 +21781,7 @@
     <row r="1640">
       <c r="B1640" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1640">
@@ -21807,7 +21807,7 @@
     <row r="1642">
       <c r="B1642" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1642">
@@ -21820,7 +21820,7 @@
     <row r="1643">
       <c r="B1643" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1643">
@@ -21833,7 +21833,7 @@
     <row r="1644">
       <c r="B1644" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1644">
@@ -21898,7 +21898,7 @@
     <row r="1649">
       <c r="B1649" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1649">
@@ -22067,7 +22067,7 @@
     <row r="1662">
       <c r="B1662" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1662">
@@ -22119,7 +22119,7 @@
     <row r="1666">
       <c r="B1666" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1666">
@@ -22197,7 +22197,7 @@
     <row r="1672">
       <c r="B1672" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1672">
@@ -22301,7 +22301,7 @@
     <row r="1680">
       <c r="B1680" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1680">
@@ -22423,7 +22423,7 @@
       </c>
       <c r="B1689" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1689">
@@ -22449,7 +22449,7 @@
     <row r="1691">
       <c r="B1691" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1691">
@@ -22527,7 +22527,7 @@
     <row r="1697">
       <c r="B1697" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1697">
@@ -22540,7 +22540,7 @@
     <row r="1698">
       <c r="B1698" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1698">
@@ -22579,7 +22579,7 @@
     <row r="1701">
       <c r="B1701" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1701">
@@ -22618,7 +22618,7 @@
     <row r="1704">
       <c r="B1704" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1704">
@@ -22836,7 +22836,7 @@
     <row r="1720">
       <c r="B1720" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1720">
@@ -22849,7 +22849,7 @@
     <row r="1721">
       <c r="B1721" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1721">
@@ -22914,7 +22914,7 @@
     <row r="1726">
       <c r="B1726" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1726">
@@ -23031,7 +23031,7 @@
     <row r="1735">
       <c r="B1735" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1735">
@@ -23109,7 +23109,7 @@
     <row r="1741">
       <c r="B1741" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1741">
@@ -23174,7 +23174,7 @@
     <row r="1746">
       <c r="B1746" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1746">
@@ -23200,7 +23200,7 @@
     <row r="1748">
       <c r="B1748" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1748">
@@ -23330,7 +23330,7 @@
     <row r="1758">
       <c r="B1758" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1758">
@@ -23343,7 +23343,7 @@
     <row r="1759">
       <c r="B1759" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1759">
@@ -23356,7 +23356,7 @@
     <row r="1760">
       <c r="B1760" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1760">
@@ -23369,7 +23369,7 @@
     <row r="1761">
       <c r="B1761" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1761">
@@ -23382,7 +23382,7 @@
     <row r="1762">
       <c r="B1762" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1762">
@@ -23395,7 +23395,7 @@
     <row r="1763">
       <c r="B1763" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1763">
@@ -23589,7 +23589,7 @@
         <v>168</v>
       </c>
       <c r="D1777">
-        <v>0.0009175163705673855</v>
+        <v>0.0009175163705673856</v>
       </c>
     </row>
     <row r="1778">
@@ -24185,7 +24185,7 @@
     <row r="1823">
       <c r="B1823" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1823">
@@ -24289,7 +24289,7 @@
     <row r="1831">
       <c r="B1831" t="inlineStr">
         <is>
-          <t>San Felipe de Jesús</t>
+          <t>San Felipe De Jesús</t>
         </is>
       </c>
       <c r="C1831">
@@ -24328,7 +24328,7 @@
     <row r="1834">
       <c r="B1834" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C1834">
@@ -24341,7 +24341,7 @@
     <row r="1835">
       <c r="B1835" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1835">
@@ -24465,7 +24465,7 @@
         <v>1675</v>
       </c>
       <c r="D1844">
-        <v>0.009147856670835541</v>
+        <v>0.009147856670835539</v>
       </c>
     </row>
     <row r="1845">
@@ -24593,7 +24593,7 @@
     <row r="1854">
       <c r="B1854" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1854">
@@ -25040,7 +25040,7 @@
     <row r="1888">
       <c r="B1888" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1888">
@@ -25149,7 +25149,7 @@
       </c>
       <c r="B1896" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1896">
@@ -25175,7 +25175,7 @@
     <row r="1898">
       <c r="B1898" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1898">
@@ -25188,7 +25188,7 @@
     <row r="1899">
       <c r="B1899" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1899">
@@ -25266,7 +25266,7 @@
     <row r="1905">
       <c r="B1905" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1905">
@@ -25357,7 +25357,7 @@
     <row r="1912">
       <c r="B1912" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1912">
@@ -25409,7 +25409,7 @@
     <row r="1916">
       <c r="B1916" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1916">
@@ -25422,7 +25422,7 @@
     <row r="1917">
       <c r="B1917" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1917">
@@ -25435,7 +25435,7 @@
     <row r="1918">
       <c r="B1918" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1918">
@@ -25474,7 +25474,7 @@
     <row r="1921">
       <c r="B1921" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1921">
@@ -25526,7 +25526,7 @@
     <row r="1925">
       <c r="B1925" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1925">
@@ -25539,7 +25539,7 @@
     <row r="1926">
       <c r="B1926" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1926">
@@ -25630,7 +25630,7 @@
     <row r="1933">
       <c r="B1933" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1933">
@@ -25669,7 +25669,7 @@
     <row r="1936">
       <c r="B1936" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1936">
@@ -25825,7 +25825,7 @@
     <row r="1948">
       <c r="B1948" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1948">
@@ -25960,7 +25960,7 @@
     <row r="1958">
       <c r="B1958" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1958">
@@ -26012,7 +26012,7 @@
     <row r="1962">
       <c r="B1962" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1962">
@@ -26168,7 +26168,7 @@
     <row r="1974">
       <c r="B1974" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1974">
@@ -26194,7 +26194,7 @@
     <row r="1976">
       <c r="B1976" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1976">
@@ -26246,7 +26246,7 @@
     <row r="1980">
       <c r="B1980" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1980">
@@ -26272,7 +26272,7 @@
     <row r="1982">
       <c r="B1982" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1982">
@@ -26376,7 +26376,7 @@
     <row r="1990">
       <c r="B1990" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1990">
@@ -26545,7 +26545,7 @@
     <row r="2003">
       <c r="B2003" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C2003">
@@ -26558,7 +26558,7 @@
     <row r="2004">
       <c r="B2004" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C2004">
@@ -26779,7 +26779,7 @@
     <row r="2021">
       <c r="B2021" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C2021">
@@ -26792,7 +26792,7 @@
     <row r="2022">
       <c r="B2022" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C2022">
@@ -26805,7 +26805,7 @@
     <row r="2023">
       <c r="B2023" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C2023">
@@ -26857,7 +26857,7 @@
     <row r="2027">
       <c r="B2027" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C2027">
@@ -26870,7 +26870,7 @@
     <row r="2028">
       <c r="B2028" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C2028">
@@ -26883,7 +26883,7 @@
     <row r="2029">
       <c r="B2029" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C2029">
@@ -26896,7 +26896,7 @@
     <row r="2030">
       <c r="B2030" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C2030">
@@ -27026,7 +27026,7 @@
     <row r="2040">
       <c r="B2040" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C2040">
@@ -27091,7 +27091,7 @@
     <row r="2045">
       <c r="B2045" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C2045">
@@ -27104,7 +27104,7 @@
     <row r="2046">
       <c r="B2046" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C2046">
@@ -27156,7 +27156,7 @@
     <row r="2050">
       <c r="B2050" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C2050">
@@ -27195,7 +27195,7 @@
     <row r="2053">
       <c r="B2053" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C2053">
@@ -27247,7 +27247,7 @@
     <row r="2057">
       <c r="B2057" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C2057">
@@ -27273,7 +27273,7 @@
     <row r="2059">
       <c r="B2059" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C2059">
@@ -27403,7 +27403,7 @@
     <row r="2069">
       <c r="B2069" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C2069">
@@ -27455,7 +27455,7 @@
     <row r="2073">
       <c r="B2073" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C2073">
@@ -27468,7 +27468,7 @@
     <row r="2074">
       <c r="B2074" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C2074">
@@ -27520,7 +27520,7 @@
     <row r="2078">
       <c r="B2078" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C2078">
@@ -27663,7 +27663,7 @@
     <row r="2089">
       <c r="B2089" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C2089">
@@ -27715,7 +27715,7 @@
     <row r="2093">
       <c r="B2093" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C2093">
@@ -27793,7 +27793,7 @@
     <row r="2099">
       <c r="B2099" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C2099">
@@ -28235,7 +28235,7 @@
     <row r="2133">
       <c r="B2133" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C2133">
@@ -28378,7 +28378,7 @@
     <row r="2144">
       <c r="B2144" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C2144">
@@ -28391,7 +28391,7 @@
     <row r="2145">
       <c r="B2145" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C2145">
@@ -29519,7 +29519,7 @@
     <row r="2231">
       <c r="B2231" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C2231">
@@ -29545,7 +29545,7 @@
     <row r="2233">
       <c r="B2233" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C2233">
@@ -29571,7 +29571,7 @@
     <row r="2235">
       <c r="B2235" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C2235">
@@ -29701,7 +29701,7 @@
     <row r="2245">
       <c r="B2245" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C2245">
@@ -29792,7 +29792,7 @@
     <row r="2252">
       <c r="B2252" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C2252">
@@ -29857,7 +29857,7 @@
     <row r="2257">
       <c r="B2257" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C2257">
@@ -29870,7 +29870,7 @@
     <row r="2258">
       <c r="B2258" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C2258">
@@ -29883,7 +29883,7 @@
     <row r="2259">
       <c r="B2259" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C2259">
@@ -30026,7 +30026,7 @@
     <row r="2270">
       <c r="B2270" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C2270">
@@ -30039,7 +30039,7 @@
     <row r="2271">
       <c r="B2271" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C2271">
@@ -30065,7 +30065,7 @@
     <row r="2273">
       <c r="B2273" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C2273">
@@ -30104,7 +30104,7 @@
     <row r="2276">
       <c r="B2276" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C2276">
@@ -30203,41 +30203,6 @@
       </c>
       <c r="D2283">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2285">
-      <c r="A2285" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="2286">
-      <c r="A2286" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2287">
-      <c r="A2287" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="2288">
-      <c r="A2288" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2289">
-      <c r="A2289" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
